--- a/src/com/generic/config/DataSheet_back.xlsx
+++ b/src/com/generic/config/DataSheet_back.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WS\CBISmokeTests\src\com\generic\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30B6F14-8362-46F1-B263-316A10E09BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21431A6-78F7-4832-B703-8C0DD2B10E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="420">
   <si>
     <t>Browser</t>
   </si>
@@ -251,259 +251,16 @@
     <t>HPV-02</t>
   </si>
   <si>
-    <t>check footer guest</t>
-  </si>
-  <si>
-    <t>verify
-footer</t>
-  </si>
-  <si>
     <t>HPV-03</t>
   </si>
   <si>
-    <t>check body guest</t>
-  </si>
-  <si>
-    <t>verify
-body</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>global-alerts</t>
-  </si>
-  <si>
     <t>PDP-01</t>
   </si>
   <si>
-    <t>Guest, verify the PDP basics id</t>
-  </si>
-  <si>
-    <t>Guest
-id</t>
-  </si>
-  <si>
-    <t>PDP-02</t>
-  </si>
-  <si>
-    <t>Guest, verify the PDP basics title</t>
-  </si>
-  <si>
-    <t>Guest
-title</t>
-  </si>
-  <si>
-    <t>PDP-03</t>
-  </si>
-  <si>
-    <t>Guest, verify the PDP basics price</t>
-  </si>
-  <si>
-    <t>Guest
-ratings</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>PDP-04</t>
-  </si>
-  <si>
-    <t>Guest
-color</t>
-  </si>
-  <si>
-    <t>PDP-05</t>
-  </si>
-  <si>
-    <t>Guest
-fleece</t>
-  </si>
-  <si>
-    <t>PDP-06</t>
-  </si>
-  <si>
-    <t>Guest
-memory</t>
-  </si>
-  <si>
-    <t>PDP-07</t>
-  </si>
-  <si>
-    <t>Guest, verify the PDP basics size</t>
-  </si>
-  <si>
-    <t>Guest
-size</t>
-  </si>
-  <si>
     <t>P3</t>
-  </si>
-  <si>
-    <t>PDP-08</t>
-  </si>
-  <si>
-    <t>Guest
-reviews</t>
-  </si>
-  <si>
-    <t>PDP-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest, verify the PDP bundle </t>
-  </si>
-  <si>
-    <t>Guest
-bundle</t>
-  </si>
-  <si>
-    <t>PDP-10</t>
-  </si>
-  <si>
-    <t>Guest, verify the PDP basics</t>
-  </si>
-  <si>
-    <t>PDP-11</t>
-  </si>
-  <si>
-    <t>Guest, verify the PDP basics overview</t>
-  </si>
-  <si>
-    <t>Guest
-overview</t>
-  </si>
-  <si>
-    <t>PDP-12</t>
-  </si>
-  <si>
-    <t>Guest, verify the PDP basics features</t>
-  </si>
-  <si>
-    <t>Guest
-feature</t>
-  </si>
-  <si>
-    <t>PDP-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest, verify the PDP basics availability </t>
-  </si>
-  <si>
-    <t>Guest
-stock availability</t>
-  </si>
-  <si>
-    <t>PDP-14</t>
-  </si>
-  <si>
-    <t>Guest, verify the PDP basics add to cart button</t>
-  </si>
-  <si>
-    <t>Guest
-add to cart button</t>
-  </si>
-  <si>
-    <t>PDP-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest, verify the PDP basics </t>
-  </si>
-  <si>
-    <t>Guest
-id
-title
-price
-overview
-feature
-stock availability
-add to cart button</t>
-  </si>
-  <si>
-    <t>PDP-16</t>
-  </si>
-  <si>
-    <t>Loggedin, verify the PDP basics id</t>
-  </si>
-  <si>
-    <t>Loggedin
-id</t>
-  </si>
-  <si>
-    <t>PDP-17</t>
-  </si>
-  <si>
-    <t>Loggedin, verify the PDP basics title</t>
-  </si>
-  <si>
-    <t>Loggedin
-title</t>
-  </si>
-  <si>
-    <t>PDP-18</t>
-  </si>
-  <si>
-    <t>Loggedin, verify the PDP basics price</t>
-  </si>
-  <si>
-    <t>Loggedin
-price</t>
-  </si>
-  <si>
-    <t>PDP-19</t>
-  </si>
-  <si>
-    <t>Loggedin, verify the PDP basics overview</t>
-  </si>
-  <si>
-    <t>Loggedin
-overview</t>
-  </si>
-  <si>
-    <t>PDP-20</t>
-  </si>
-  <si>
-    <t>Loggedin, verify the PDP basics features</t>
-  </si>
-  <si>
-    <t>Loggedin
-feature</t>
-  </si>
-  <si>
-    <t>PDP-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loggedin, verify the PDP basics availability </t>
-  </si>
-  <si>
-    <t>Loggedin
-stock availability</t>
-  </si>
-  <si>
-    <t>PDP-22</t>
-  </si>
-  <si>
-    <t>Loggedin, verify the PDP basics add to cart button</t>
-  </si>
-  <si>
-    <t>Loggedin
-add to cart button</t>
-  </si>
-  <si>
-    <t>PDP-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loggedin, verify the PDP basics </t>
-  </si>
-  <si>
-    <t>Loggedin
-id
-title
-price
-overview
-feature
-stock availability
-add to cart button</t>
   </si>
   <si>
     <t>promotion</t>
@@ -713,64 +470,7 @@
 </t>
   </si>
   <si>
-    <t>Proprties</t>
-  </si>
-  <si>
-    <t>numberOfProducts</t>
-  </si>
-  <si>
-    <t>PLP-01</t>
-  </si>
-  <si>
-    <t>PLP with highest price first</t>
-  </si>
-  <si>
-    <t>sort HTL</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>U-11</t>
-  </si>
-  <si>
-    <t>PLP-02</t>
-  </si>
-  <si>
-    <t>PLP with lowest price first</t>
-  </si>
-  <si>
-    <t>sort LTH</t>
-  </si>
-  <si>
-    <t>PLP-03</t>
-  </si>
-  <si>
-    <t>Pagination Validation</t>
-  </si>
-  <si>
-    <t>Pagination</t>
-  </si>
-  <si>
-    <t>PLP-04</t>
-  </si>
-  <si>
-    <t>Loggedin
-sort HTL</t>
-  </si>
-  <si>
-    <t>PLP-05</t>
-  </si>
-  <si>
-    <t>Loggedin
-sort LTH</t>
-  </si>
-  <si>
-    <t>PLP-06</t>
-  </si>
-  <si>
-    <t>Loggedin
-Pagination</t>
   </si>
   <si>
     <t>type</t>
@@ -1603,19 +1303,6 @@
     <t>2.5 INCH GEL FOAM UPGRADE</t>
   </si>
   <si>
-    <t>Guest
-price
-id
-title
-add to cart button
-desc
-social
-color
-fleece
-memory
-getRandomProduct</t>
-  </si>
-  <si>
     <t xml:space="preserve">Logo validation  </t>
   </si>
   <si>
@@ -1626,17 +1313,135 @@
 - Click logo
 - validate if you are on home page or not. </t>
   </si>
+  <si>
+    <t>shop menu validation</t>
+  </si>
+  <si>
+    <t>search validation</t>
+  </si>
+  <si>
+    <t>Mini cart validation</t>
+  </si>
+  <si>
+    <t>HPV-04</t>
+  </si>
+  <si>
+    <t>HPV-05</t>
+  </si>
+  <si>
+    <t>Mini cart validation:
+- Navigate to the Homepage
+- Click on Mini cart
+- Verify the text for empty cart is displayed.
+- Click close and verify that modal is closed. 
+- Add products to cart 
+- Click on Mini cart
+- Verify the products data is displayed.
+- Verify checkout button is displayed
+- Click close and verify that modal is closed</t>
+  </si>
+  <si>
+    <t>Verify the PDP basics</t>
+  </si>
+  <si>
+    <t>Validate PDP active elements</t>
+  </si>
+  <si>
+    <t>SRCH-01</t>
+  </si>
+  <si>
+    <t>- Navigate to the Homepage
+-  Search by product number (read it from config file)
+- Select the first suggested item
+- Verify user is navigated to PDP page
+-  Search by any search term (read it from config file)
+- Click on search
+- Verify Products links and images are displayed 
+- Save the order of products
+- Click on Sort by "Customer Rating"
+- Verify the order of item is changed
+- Click on Filter by menu
+- Click on the first option, Save the product count before clicking on it.
+- Verify the number of products is changed and match the value displayed in the filter modal.</t>
+  </si>
+  <si>
+    <t>Search validation
+- Navigate to the Homepage
+- Click on the Search icon
+- Verify that the search icon field is opened, and the place holder is displayed correctly. 
+- Click on close (X) icon
+- Verify that search modal is closed</t>
+  </si>
+  <si>
+    <t>espots validation
+- Navigate to the Homepage
+- Verify that ""module-hero"" image is displayed and loaded.
+- Verify that category custom carousel content is displayed and loaded correctly.
+- Verify that all Home body Espots loaded correctly</t>
+  </si>
+  <si>
+    <t>HPV-06</t>
+  </si>
+  <si>
+    <t>espots validation</t>
+  </si>
+  <si>
+    <t>My account menu existence and open / close*
+*_Desktop/ Tablet_*
+# Navigate to the Homepage
+# Click/Hover on my account menu.
+!My  account  acount  Menue.png|thumbnail!
+# Verify that all my account links are displayed. 
+# Click on any link and verify it is clickable.
+*_Mobile:_*
+# Navigate to the Homepage
+# Click on my account menu.
+# Verify that all my account links are displayed.
+# Close my account menu.</t>
+  </si>
+  <si>
+    <t>Account menu validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task2: Navigation menu display and open / close
+Desktop:
+    Navigate to the Homepage.
+    Check if the menu displayed.
+    Count the number of first-level categories links
+    Loop on the links and verify they are clickable and you navigated to the correct content. By validating the clicked category is navigating to the same link in the target page.
+Mobile:
+    Navigate to the Homepage.
+    Click on the shop menu.
+    Make sure you can navigate through the second level.
+    Get the link and name of any category.
+    Click on any category from the second level.
+    make sure you were navigated to that category.
+</t>
+  </si>
+  <si>
+    <t>HPV-07</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1672,6 +1477,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1699,7 +1510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1806,17 +1617,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1827,29 +1627,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1858,7 +1658,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1870,31 +1670,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1909,26 +1709,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1940,16 +1740,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1970,7 +1770,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1979,10 +1779,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1992,20 +1792,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2013,10 +1801,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2034,22 +1822,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2064,10 +1843,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2087,6 +1866,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2414,36 +2205,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="79"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="79"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="79"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="57" t="s">
@@ -2495,124 +2286,124 @@
         <v>22</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1">
       <c r="A2" s="56" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="E2" s="58" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="56" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="56" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="105">
       <c r="A5" s="56" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="49" t="s">
-        <v>236</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="56" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="F6" s="58"/>
       <c r="G6" s="47" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2660,39 +2451,39 @@
         <v>21</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="E1" s="51" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60">
       <c r="A2" s="26" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2708,8 +2499,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2739,141 +2530,141 @@
         <v>29</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="26" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="26" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="26" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="17" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="50" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="17" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="2" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="17" t="s">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2925,19 +2716,19 @@
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="29" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="F2" s="46"/>
     </row>
@@ -2987,230 +2778,230 @@
         <v>29</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="38" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="39" t="s">
-        <v>281</v>
+        <v>194</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>287</v>
+        <v>200</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="38" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>291</v>
+        <v>204</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60">
       <c r="A5" s="38" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>297</v>
+        <v>210</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="38" t="s">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>302</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
       <c r="A7" s="38" t="s">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="F7" s="38">
         <v>123</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>306</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="38" t="s">
-        <v>307</v>
+        <v>220</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>308</v>
+        <v>221</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="42" t="s">
-        <v>309</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30">
       <c r="A9" s="38" t="s">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>311</v>
+        <v>224</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>312</v>
+        <v>225</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="G9" s="38">
         <v>123</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30">
       <c r="A10" s="38" t="s">
-        <v>314</v>
+        <v>227</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>315</v>
+        <v>228</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="F10" s="38">
         <v>123</v>
@@ -3219,31 +3010,31 @@
         <v>123</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
       <c r="A11" s="38" t="s">
-        <v>316</v>
+        <v>229</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="39" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>318</v>
+        <v>231</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>319</v>
+        <v>232</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>320</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3287,7 +3078,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>24</v>
@@ -3307,19 +3098,19 @@
     </row>
     <row r="2" spans="1:9" s="24" customFormat="1">
       <c r="A2" s="26" t="s">
-        <v>322</v>
+        <v>235</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>40</v>
@@ -3336,19 +3127,19 @@
     </row>
     <row r="3" spans="1:9" s="24" customFormat="1">
       <c r="A3" s="26" t="s">
-        <v>325</v>
+        <v>238</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>40</v>
@@ -3365,19 +3156,19 @@
     </row>
     <row r="4" spans="1:9" s="24" customFormat="1">
       <c r="A4" s="26" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>40</v>
@@ -3394,19 +3185,19 @@
     </row>
     <row r="5" spans="1:9" s="24" customFormat="1">
       <c r="A5" s="26" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>40</v>
@@ -3423,19 +3214,19 @@
     </row>
     <row r="6" spans="1:9" s="24" customFormat="1">
       <c r="A6" s="26" t="s">
-        <v>328</v>
+        <v>241</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>40</v>
@@ -3452,19 +3243,19 @@
     </row>
     <row r="7" spans="1:9" s="24" customFormat="1">
       <c r="A7" s="26" t="s">
-        <v>329</v>
+        <v>242</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>40</v>
@@ -3481,19 +3272,19 @@
     </row>
     <row r="8" spans="1:9" s="24" customFormat="1">
       <c r="A8" s="26" t="s">
-        <v>330</v>
+        <v>243</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>40</v>
@@ -3510,19 +3301,19 @@
     </row>
     <row r="9" spans="1:9" s="24" customFormat="1">
       <c r="A9" s="26" t="s">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>40</v>
@@ -3539,19 +3330,19 @@
     </row>
     <row r="10" spans="1:9" s="24" customFormat="1">
       <c r="A10" s="26" t="s">
-        <v>332</v>
+        <v>245</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>40</v>
@@ -3568,19 +3359,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="26" t="s">
-        <v>333</v>
+        <v>246</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>40</v>
@@ -3592,24 +3383,24 @@
         <v>36</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>194</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="26" t="s">
-        <v>334</v>
+        <v>247</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>40</v>
@@ -3621,24 +3412,24 @@
         <v>36</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="26" t="s">
-        <v>335</v>
+        <v>248</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>40</v>
@@ -3650,24 +3441,24 @@
         <v>36</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>336</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="26" t="s">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>40</v>
@@ -3679,24 +3470,24 @@
         <v>36</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="26" t="s">
-        <v>338</v>
+        <v>251</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>40</v>
@@ -3708,24 +3499,24 @@
         <v>36</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="26" t="s">
-        <v>339</v>
+        <v>252</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>40</v>
@@ -3737,24 +3528,24 @@
         <v>36</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="26" t="s">
-        <v>340</v>
+        <v>253</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>40</v>
@@ -3766,24 +3557,24 @@
         <v>36</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>277</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="26" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>40</v>
@@ -3795,24 +3586,24 @@
         <v>36</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="26" t="s">
-        <v>342</v>
+        <v>255</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>40</v>
@@ -3824,24 +3615,24 @@
         <v>36</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="26" t="s">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>40</v>
@@ -3853,24 +3644,24 @@
         <v>36</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="26" t="s">
-        <v>344</v>
+        <v>257</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>40</v>
@@ -3882,24 +3673,24 @@
         <v>36</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="26" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>40</v>
@@ -3911,24 +3702,24 @@
         <v>36</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="26" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>40</v>
@@ -3940,24 +3731,24 @@
         <v>36</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="26" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>40</v>
@@ -3969,24 +3760,24 @@
         <v>36</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="26" t="s">
-        <v>348</v>
+        <v>261</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>40</v>
@@ -3998,24 +3789,24 @@
         <v>36</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="26" t="s">
-        <v>349</v>
+        <v>262</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>40</v>
@@ -4027,24 +3818,24 @@
         <v>36</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>350</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="26" t="s">
-        <v>351</v>
+        <v>264</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>40</v>
@@ -4056,24 +3847,24 @@
         <v>36</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="26" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>40</v>
@@ -4085,24 +3876,24 @@
         <v>36</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="26" t="s">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>40</v>
@@ -4114,24 +3905,24 @@
         <v>36</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="26" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>40</v>
@@ -4143,24 +3934,24 @@
         <v>36</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="26" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F31" s="30" t="s">
         <v>40</v>
@@ -4172,24 +3963,24 @@
         <v>36</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="26" t="s">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F32" s="30" t="s">
         <v>40</v>
@@ -4201,24 +3992,24 @@
         <v>36</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="26" t="s">
-        <v>363</v>
+        <v>276</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="F33" s="30" t="s">
         <v>40</v>
@@ -4230,7 +4021,7 @@
         <v>36</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4462,25 +4253,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="19" t="s">
-        <v>365</v>
+        <v>278</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>370</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4488,22 +4279,22 @@
         <v>64</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>375</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4511,22 +4302,22 @@
         <v>41</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>376</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4534,22 +4325,22 @@
         <v>46</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>377</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4557,22 +4348,22 @@
         <v>50</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>378</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4580,22 +4371,22 @@
         <v>54</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>379</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4603,22 +4394,22 @@
         <v>57</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>380</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4626,22 +4417,22 @@
         <v>59</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>381</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4649,22 +4440,22 @@
         <v>61</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>382</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4672,551 +4463,551 @@
         <v>37</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>383</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="13" t="s">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>384</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="13" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>385</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="13" t="s">
-        <v>336</v>
+        <v>249</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="13" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="13" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>388</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="13" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>389</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="13" t="s">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="13" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>391</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="13" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>392</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="13" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>393</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="13" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>394</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="13" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>395</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="13" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="13" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="13" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>398</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="13" t="s">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="13" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="13" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="13" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="13" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="13" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="13" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="13" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5284,40 +5075,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
-        <v>365</v>
+        <v>278</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>411</v>
+        <v>324</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>413</v>
+        <v>326</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>414</v>
+        <v>327</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60">
@@ -5325,16 +5116,16 @@
         <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>417</v>
+        <v>330</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>418</v>
+        <v>331</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -5342,93 +5133,93 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="16" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>421</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="180">
       <c r="A3" s="12" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>423</v>
+        <v>336</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>424</v>
+        <v>337</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>425</v>
+        <v>338</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>426</v>
+        <v>339</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>427</v>
+        <v>340</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>428</v>
+        <v>341</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>429</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60">
       <c r="A4" s="12" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>431</v>
+        <v>344</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>432</v>
+        <v>345</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>433</v>
+        <v>346</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="14" t="s">
-        <v>434</v>
+        <v>347</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>435</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="210">
       <c r="A5" s="10" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>436</v>
+        <v>349</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>437</v>
+        <v>350</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>438</v>
+        <v>351</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -5436,10 +5227,10 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5476,89 +5267,89 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>443</v>
+        <v>356</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>446</v>
+        <v>359</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>447</v>
+        <v>360</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>450</v>
+        <v>363</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>453</v>
+        <v>366</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>450</v>
+        <v>363</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5566,57 +5357,57 @@
         <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>450</v>
+        <v>363</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5648,22 +5439,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>463</v>
+        <v>376</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>365</v>
+        <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>464</v>
+        <v>377</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>465</v>
+        <v>378</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>466</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5671,19 +5462,19 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>467</v>
+        <v>380</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5691,79 +5482,79 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>474</v>
+        <v>387</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5771,19 +5562,19 @@
         <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5813,7 +5604,7 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5821,7 +5612,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="73" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5829,7 +5620,7 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="73" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5837,7 +5628,7 @@
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="73" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5845,7 +5636,7 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="73" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5853,7 +5644,7 @@
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="73" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5861,7 +5652,7 @@
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="73" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5869,7 +5660,7 @@
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="73" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5877,7 +5668,7 @@
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="73" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5885,7 +5676,7 @@
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="73" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5893,7 +5684,7 @@
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="73" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5901,7 +5692,7 @@
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="73" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5916,72 +5707,127 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="79"/>
+    <col min="2" max="2" width="9.140625" style="72"/>
     <col min="3" max="3" width="63.140625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="62" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="90">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>488</v>
-      </c>
-      <c r="D2" s="91" t="s">
-        <v>487</v>
+      <c r="B2" s="83"/>
+      <c r="C2" s="80" t="s">
+        <v>400</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="81" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="195">
+      <c r="A4" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="91" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>71</v>
+      <c r="B4" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>415</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="105">
+      <c r="A5" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="150">
+      <c r="A6" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90">
+      <c r="A7" s="82" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="240">
+      <c r="A8" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6007,20 +5853,20 @@
     <col min="8" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6" style="82" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6" style="75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="81" customFormat="1">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:11" s="74" customFormat="1">
+      <c r="A1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="76" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="44" t="s">
@@ -6038,14 +5884,14 @@
       <c r="I1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="63" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="72" customFormat="1" ht="60">
+    <row r="2" spans="1:11" s="68" customFormat="1" ht="60">
       <c r="A2" s="29" t="s">
         <v>30</v>
       </c>
@@ -6062,7 +5908,7 @@
       <c r="F2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="71" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="56" t="s">
@@ -6076,7 +5922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="72" customFormat="1" ht="60">
+    <row r="3" spans="1:11" s="68" customFormat="1" ht="60">
       <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
@@ -6093,7 +5939,7 @@
       <c r="F3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="71" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="56" t="s">
@@ -6107,7 +5953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="72" customFormat="1" ht="45">
+    <row r="4" spans="1:11" s="68" customFormat="1" ht="45">
       <c r="A4" s="29" t="s">
         <v>42</v>
       </c>
@@ -6124,7 +5970,7 @@
       <c r="F4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="71" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="56" t="s">
@@ -6138,7 +5984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="72" customFormat="1" ht="45">
+    <row r="5" spans="1:11" s="68" customFormat="1" ht="45">
       <c r="A5" s="29" t="s">
         <v>47</v>
       </c>
@@ -6155,7 +6001,7 @@
       <c r="F5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="71" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="56" t="s">
@@ -6188,7 +6034,7 @@
       <c r="F6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="71" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="56" t="s">
@@ -6221,7 +6067,7 @@
       <c r="F7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="71" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="56" t="s">
@@ -6254,7 +6100,7 @@
       <c r="F8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="71" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="56" t="s">
@@ -6287,7 +6133,7 @@
       <c r="F9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="71" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="56" t="s">
@@ -6308,7 +6154,7 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="77"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -6321,11 +6167,11 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="77"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
-      <c r="K11" s="69"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="29"/>
@@ -6334,11 +6180,11 @@
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="77"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
-      <c r="K12" s="69"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="29"/>
@@ -6347,11 +6193,11 @@
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="77"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
-      <c r="K13" s="69"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="29"/>
@@ -6360,11 +6206,11 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="77"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
-      <c r="K14" s="69"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="29"/>
@@ -6373,11 +6219,11 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="77"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
-      <c r="K15" s="69"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="29"/>
@@ -6386,11 +6232,11 @@
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="77"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
-      <c r="K16" s="69"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="29"/>
@@ -6399,11 +6245,11 @@
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="77"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
-      <c r="K17" s="69"/>
+      <c r="K17" s="65"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="29"/>
@@ -6412,11 +6258,11 @@
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="77"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="56"/>
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
-      <c r="K18" s="69"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="29"/>
@@ -6425,7 +6271,7 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="77"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -6458,20 +6304,20 @@
     <col min="8" max="8" width="15.85546875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6" style="82" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6" style="75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="81" customFormat="1">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:11" s="74" customFormat="1">
+      <c r="A1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="76" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="44" t="s">
@@ -6489,14 +6335,14 @@
       <c r="I1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="63" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="72" customFormat="1" ht="90">
+    <row r="2" spans="1:11" s="68" customFormat="1" ht="90">
       <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
@@ -6515,7 +6361,7 @@
       <c r="F2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="71" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="56" t="s">
@@ -6529,40 +6375,40 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="72" customFormat="1">
+    <row r="3" spans="1:11" s="68" customFormat="1">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="77"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" s="72" customFormat="1">
+    <row r="4" spans="1:11" s="68" customFormat="1">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="77"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" s="72" customFormat="1">
+    <row r="5" spans="1:11" s="68" customFormat="1">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="77"/>
+      <c r="G5" s="71"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
@@ -6575,7 +6421,7 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="77"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
@@ -6588,7 +6434,7 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="77"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
@@ -6601,7 +6447,7 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="77"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
@@ -6614,7 +6460,7 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="77"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
@@ -6627,7 +6473,7 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="77"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
@@ -6640,11 +6486,11 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="77"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
-      <c r="K11" s="69"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="29"/>
@@ -6653,11 +6499,11 @@
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="77"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
-      <c r="K12" s="69"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="29"/>
@@ -6666,11 +6512,11 @@
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="77"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
-      <c r="K13" s="69"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="29"/>
@@ -6679,11 +6525,11 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="77"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
-      <c r="K14" s="69"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="29"/>
@@ -6692,11 +6538,11 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="77"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
-      <c r="K15" s="69"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="29"/>
@@ -6705,11 +6551,11 @@
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="77"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
-      <c r="K16" s="69"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="29"/>
@@ -6718,11 +6564,11 @@
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="77"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
-      <c r="K17" s="69"/>
+      <c r="K17" s="65"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="29"/>
@@ -6731,11 +6577,11 @@
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="77"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="56"/>
       <c r="I18" s="56"/>
       <c r="J18" s="56"/>
-      <c r="K18" s="69"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="29"/>
@@ -6744,7 +6590,7 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="77"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
@@ -6761,10 +6607,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6773,12 +6619,9 @@
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6" style="72" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -6791,424 +6634,20 @@
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
+    </row>
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
-    </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
-    </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
-    </row>
-    <row r="11" spans="1:7" ht="165">
-      <c r="A11" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>486</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="78"/>
-    </row>
-    <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="78"/>
-    </row>
-    <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="78"/>
-    </row>
-    <row r="15" spans="1:7" ht="30">
-      <c r="A15" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="76"/>
-      <c r="G15" s="78"/>
-    </row>
-    <row r="16" spans="1:7" ht="120">
-      <c r="A16" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="78"/>
-    </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="30">
-      <c r="A23" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="120">
-      <c r="A24" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>408</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7229,513 +6668,513 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="64" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="64" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="64"/>
-    <col min="6" max="6" width="6" style="65" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="64" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="64" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="64" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="64" customWidth="1"/>
-    <col min="11" max="11" width="47.140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="60" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="60"/>
+    <col min="6" max="6" width="6" style="61" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="60" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="60" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="60" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" style="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="67" t="s">
-        <v>144</v>
+      <c r="G1" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30">
-      <c r="A2" s="68" t="s">
-        <v>145</v>
+      <c r="A2" s="64" t="s">
+        <v>76</v>
       </c>
       <c r="B2" s="56"/>
-      <c r="C2" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>147</v>
+      <c r="C2" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>78</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="69"/>
+        <v>79</v>
+      </c>
+      <c r="F2" s="65"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J2" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="30">
-      <c r="A3" s="68" t="s">
-        <v>151</v>
+      <c r="A3" s="64" t="s">
+        <v>82</v>
       </c>
       <c r="B3" s="56"/>
-      <c r="C3" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>153</v>
+      <c r="C3" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>84</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="69"/>
+        <v>79</v>
+      </c>
+      <c r="F3" s="65"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J3" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="45">
-      <c r="A4" s="68" t="s">
-        <v>154</v>
+      <c r="A4" s="64" t="s">
+        <v>85</v>
       </c>
       <c r="B4" s="56"/>
-      <c r="C4" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>155</v>
+      <c r="C4" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>86</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="69"/>
+        <v>79</v>
+      </c>
+      <c r="F4" s="65"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J4" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="45">
-      <c r="A5" s="68" t="s">
-        <v>156</v>
+      <c r="A5" s="64" t="s">
+        <v>87</v>
       </c>
       <c r="B5" s="56"/>
-      <c r="C5" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>158</v>
+      <c r="C5" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>89</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="69"/>
+        <v>79</v>
+      </c>
+      <c r="F5" s="65"/>
       <c r="G5" s="56"/>
       <c r="H5" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="30">
-      <c r="A6" s="68" t="s">
-        <v>159</v>
+      <c r="A6" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="B6" s="56"/>
       <c r="C6" s="26" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="60">
-      <c r="A7" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="71"/>
+      <c r="A7" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="67"/>
       <c r="C7" s="27" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="68"/>
+        <v>95</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="64"/>
       <c r="G7" s="27" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="H7" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J7" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45">
-      <c r="A8" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="68" t="s">
-        <v>168</v>
+      <c r="A8" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="64" t="s">
+        <v>99</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68" t="s">
-        <v>170</v>
+        <v>100</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64" t="s">
+        <v>101</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="K8" s="68" t="s">
-        <v>171</v>
+        <v>80</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30">
-      <c r="A9" s="68" t="s">
-        <v>172</v>
+      <c r="A9" s="64" t="s">
+        <v>103</v>
       </c>
       <c r="B9" s="56"/>
-      <c r="C9" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>173</v>
+      <c r="C9" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>104</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="G9" s="56"/>
       <c r="H9" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K9" s="56"/>
     </row>
     <row r="10" spans="1:11" ht="30">
-      <c r="A10" s="68" t="s">
-        <v>175</v>
+      <c r="A10" s="64" t="s">
+        <v>106</v>
       </c>
       <c r="B10" s="56"/>
-      <c r="C10" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>148</v>
+      <c r="C10" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>79</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="G10" s="56"/>
       <c r="H10" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K10" s="56"/>
     </row>
     <row r="11" spans="1:11" ht="45">
-      <c r="A11" s="68" t="s">
-        <v>178</v>
+      <c r="A11" s="64" t="s">
+        <v>109</v>
       </c>
       <c r="B11" s="56"/>
-      <c r="C11" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>148</v>
+      <c r="C11" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>79</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="G11" s="56"/>
       <c r="H11" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J11" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K11" s="56"/>
     </row>
     <row r="12" spans="1:11" ht="45">
-      <c r="A12" s="68" t="s">
-        <v>181</v>
+      <c r="A12" s="64" t="s">
+        <v>112</v>
       </c>
       <c r="B12" s="56"/>
-      <c r="C12" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="68" t="s">
-        <v>148</v>
+      <c r="C12" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>79</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="G12" s="56"/>
       <c r="H12" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J12" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" ht="30">
-      <c r="A13" s="68" t="s">
-        <v>184</v>
+      <c r="A13" s="64" t="s">
+        <v>115</v>
       </c>
       <c r="B13" s="56"/>
       <c r="C13" s="26" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>148</v>
+        <v>117</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>79</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="G13" s="56"/>
       <c r="H13" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:11" ht="60">
-      <c r="A14" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" s="71"/>
+      <c r="A14" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="67"/>
       <c r="C14" s="27" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="68"/>
+        <v>95</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="64"/>
       <c r="G14" s="27" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="H14" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J14" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45">
-      <c r="A15" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="68" t="s">
-        <v>168</v>
+      <c r="A15" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="67"/>
+      <c r="C15" s="64" t="s">
+        <v>99</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68" t="s">
-        <v>170</v>
+        <v>100</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64" t="s">
+        <v>101</v>
       </c>
       <c r="H15" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I15" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J15" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" s="68" t="s">
-        <v>171</v>
+        <v>80</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="90">
-      <c r="A16" s="68" t="s">
-        <v>190</v>
+      <c r="A16" s="64" t="s">
+        <v>121</v>
       </c>
       <c r="B16" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="69"/>
+      <c r="C16" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="65"/>
       <c r="G16" s="56"/>
       <c r="H16" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K16" s="56"/>
     </row>
     <row r="17" spans="1:11" ht="90">
-      <c r="A17" s="68" t="s">
-        <v>192</v>
+      <c r="A17" s="64" t="s">
+        <v>123</v>
       </c>
       <c r="B17" s="56"/>
-      <c r="C17" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>194</v>
+      <c r="C17" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>125</v>
       </c>
       <c r="G17" s="56"/>
       <c r="H17" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="I17" s="56" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="J17" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="K17" s="56"/>
     </row>
@@ -7758,99 +7197,99 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="64" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="64" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="64"/>
-    <col min="6" max="6" width="6" style="65" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="60" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="60"/>
+    <col min="6" max="6" width="6" style="61" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="67" t="s">
-        <v>141</v>
+      <c r="G1" s="63" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="68" t="s">
-        <v>145</v>
+      <c r="A2" s="64" t="s">
+        <v>76</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>195</v>
+      <c r="C2" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>126</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="69"/>
+        <v>79</v>
+      </c>
+      <c r="F2" s="65"/>
       <c r="G2" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="68" t="s">
-        <v>151</v>
+      <c r="A3" s="64" t="s">
+        <v>82</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>196</v>
+      <c r="C3" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>127</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="69"/>
+        <v>79</v>
+      </c>
+      <c r="F3" s="65"/>
       <c r="G3" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
-      <c r="A4" s="68" t="s">
-        <v>154</v>
+      <c r="A4" s="64" t="s">
+        <v>85</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>197</v>
+      <c r="C4" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>128</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="69"/>
+        <v>79</v>
+      </c>
+      <c r="F4" s="65"/>
       <c r="G4" s="56" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -7864,23 +7303,23 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="18"/>
-    <col min="3" max="3" width="26.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="58.5703125" style="18" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11" style="24" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18.140625" style="18" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="6" style="18" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="23" customFormat="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -7890,134 +7329,16 @@
       <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="24" customFormat="1">
-      <c r="A2" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>204</v>
+    </row>
+    <row r="2" spans="1:3" ht="225">
+      <c r="A2" s="85" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
